--- a/public/ArchivesSorties.xlsx
+++ b/public/ArchivesSorties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t>Champ de Mars, 5 rue Anatole-France Paris (75000)</t>
+  </si>
+  <si>
+    <t>test archivage</t>
+  </si>
+  <si>
+    <t>2020-02-28 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-03-01 12:10:00</t>
+  </si>
+  <si>
+    <t>2020-03-11 12:10:00</t>
+  </si>
+  <si>
+    <t>Test d'archivage</t>
+  </si>
+  <si>
+    <t>Place de la fontaine Lille (59000)</t>
   </si>
 </sst>
 </file>
@@ -422,7 +440,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:K1"/>
@@ -498,6 +516,39 @@
       </c>
       <c r="K2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/public/ArchivesSorties.xlsx
+++ b/public/ArchivesSorties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -48,51 +48,6 @@
   </si>
   <si>
     <t>Lieu</t>
-  </si>
-  <si>
-    <t>Visite de Paris</t>
-  </si>
-  <si>
-    <t>2020-12-25 12:19:53</t>
-  </si>
-  <si>
-    <t>2021-01-12 12:19:45</t>
-  </si>
-  <si>
-    <t>2021-01-14 15:54:59</t>
-  </si>
-  <si>
-    <t>Voyage à Paris en bus pour visiter la capitale et ses monuments</t>
-  </si>
-  <si>
-    <t>Drakyn</t>
-  </si>
-  <si>
-    <t>Saint Herblain</t>
-  </si>
-  <si>
-    <t>Ori 2 | RoiDHyrule</t>
-  </si>
-  <si>
-    <t>Champ de Mars, 5 rue Anatole-France Paris (75000)</t>
-  </si>
-  <si>
-    <t>test archivage</t>
-  </si>
-  <si>
-    <t>2020-02-28 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-03-01 12:10:00</t>
-  </si>
-  <si>
-    <t>2020-03-11 12:10:00</t>
-  </si>
-  <si>
-    <t>Test d'archivage</t>
-  </si>
-  <si>
-    <t>Place de la fontaine Lille (59000)</t>
   </si>
 </sst>
 </file>
@@ -440,7 +395,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:K1"/>
@@ -481,74 +436,6 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/public/ArchivesSorties.xlsx
+++ b/public/ArchivesSorties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -48,6 +48,90 @@
   </si>
   <si>
     <t>Lieu</t>
+  </si>
+  <si>
+    <t>1 - Archivé</t>
+  </si>
+  <si>
+    <t>2021-01-05 09:35:12</t>
+  </si>
+  <si>
+    <t>2021-01-06 09:35:12</t>
+  </si>
+  <si>
+    <t>2021-01-07 09:35:12</t>
+  </si>
+  <si>
+    <t>Sortie archivée 1</t>
+  </si>
+  <si>
+    <t>Drakyn</t>
+  </si>
+  <si>
+    <t>Saint Herblain</t>
+  </si>
+  <si>
+    <t>Quartier de la Défense Paris (75000)</t>
+  </si>
+  <si>
+    <t>2 - Archivé</t>
+  </si>
+  <si>
+    <t>2020-01-05 09:35:12</t>
+  </si>
+  <si>
+    <t>2020-01-06 09:35:12</t>
+  </si>
+  <si>
+    <t>2020-01-07 09:35:12</t>
+  </si>
+  <si>
+    <t>Sortie archivée 2</t>
+  </si>
+  <si>
+    <t>3 - Archivé</t>
+  </si>
+  <si>
+    <t>2020-03-05 09:35:12</t>
+  </si>
+  <si>
+    <t>2020-03-06 09:35:12</t>
+  </si>
+  <si>
+    <t>2020-03-10 09:35:12</t>
+  </si>
+  <si>
+    <t>Sortie archivée 3</t>
+  </si>
+  <si>
+    <t>4 - Archivé</t>
+  </si>
+  <si>
+    <t>2020-07-05 09:35:12</t>
+  </si>
+  <si>
+    <t>2020-07-06 09:35:12</t>
+  </si>
+  <si>
+    <t>2020-07-17 09:35:12</t>
+  </si>
+  <si>
+    <t>Sortie archivée 4</t>
+  </si>
+  <si>
+    <t>5 - Archivé</t>
+  </si>
+  <si>
+    <t>2020-09-05 09:35:12</t>
+  </si>
+  <si>
+    <t>2020-09-06 09:35:12</t>
+  </si>
+  <si>
+    <t>2020-09-07 15:35:12</t>
+  </si>
+  <si>
+    <t>Sortie archivée 5</t>
   </si>
 </sst>
 </file>
@@ -395,7 +479,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:K1"/>
@@ -436,6 +520,171 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/public/ArchivesSorties.xlsx
+++ b/public/ArchivesSorties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Lieu</t>
   </si>
   <si>
-    <t>1 - Archivé</t>
+    <t>Visite de Paris</t>
   </si>
   <si>
     <t>2021-01-05 09:35:12</t>
@@ -62,7 +62,7 @@
     <t>2021-01-07 09:35:12</t>
   </si>
   <si>
-    <t>Sortie archivée 1</t>
+    <t>Visite de paris et notement de sa célèbre tour de fer</t>
   </si>
   <si>
     <t>Drakyn</t>
@@ -71,10 +71,10 @@
     <t>Saint Herblain</t>
   </si>
   <si>
-    <t>Quartier de la Défense Paris (75000)</t>
-  </si>
-  <si>
-    <t>2 - Archivé</t>
+    <t>Champ de Mars, 5 rue Anatole-France Paris (75000)</t>
+  </si>
+  <si>
+    <t>A la découverte de la Flamiche</t>
   </si>
   <si>
     <t>2020-01-05 09:35:12</t>
@@ -86,10 +86,13 @@
     <t>2020-01-07 09:35:12</t>
   </si>
   <si>
-    <t>Sortie archivée 2</t>
-  </si>
-  <si>
-    <t>3 - Archivé</t>
+    <t>Vous conaissez la tarte ? Et le maroille ? Eh bien vous associez les deux avec un peu de crème pour mincir et hop une flamiche ! Un plat très apprécié dans le nord !</t>
+  </si>
+  <si>
+    <t>5 rue du maroille Lille (59000)</t>
+  </si>
+  <si>
+    <t>Surf !</t>
   </si>
   <si>
     <t>2020-03-05 09:35:12</t>
@@ -101,10 +104,19 @@
     <t>2020-03-10 09:35:12</t>
   </si>
   <si>
-    <t>Sortie archivée 3</t>
-  </si>
-  <si>
-    <t>4 - Archivé</t>
+    <t>Cours de surf dans le sud et baignade à 27°C !</t>
+  </si>
+  <si>
+    <t>Peachoune</t>
+  </si>
+  <si>
+    <t>Chartres de Bretagne</t>
+  </si>
+  <si>
+    <t>Avenue du bord de mer Biarritz (64200)</t>
+  </si>
+  <si>
+    <t>Excalibur</t>
   </si>
   <si>
     <t>2020-07-05 09:35:12</t>
@@ -116,10 +128,16 @@
     <t>2020-07-17 09:35:12</t>
   </si>
   <si>
-    <t>Sortie archivée 4</t>
-  </si>
-  <si>
-    <t>5 - Archivé</t>
+    <t>Link et ma fille, Zelda sont parties en direction de la foret Korogu pour y trouver Excalibur, l'épée de la légende</t>
+  </si>
+  <si>
+    <t>RoiDHyrule</t>
+  </si>
+  <si>
+    <t>Centre de la forêt Foret Korogu (44444)</t>
+  </si>
+  <si>
+    <t>La ligue</t>
   </si>
   <si>
     <t>2020-09-05 09:35:12</t>
@@ -131,7 +149,16 @@
     <t>2020-09-07 15:35:12</t>
   </si>
   <si>
-    <t>Sortie archivée 5</t>
+    <t>Je vais aller défier Cynthia, maîtresse des dragons et accessoirement maître de Sinnoh... Ca sera dur mais j'y parviendrai !</t>
+  </si>
+  <si>
+    <t>SachaDuBourgPalette</t>
+  </si>
+  <si>
+    <t>La Roche Sur Yon</t>
+  </si>
+  <si>
+    <t>Route Victoire Ligue de Sinnoh (11999)</t>
   </si>
 </sst>
 </file>
@@ -585,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -593,32 +620,32 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I4"/>
       <c r="J4">
         <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -626,22 +653,22 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -651,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -659,32 +686,32 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I6"/>
       <c r="J6">
         <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
